--- a/va_facility_data_2025-02-20/Cranberry Township VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cranberry%20Township%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cranberry Township VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cranberry%20Township%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R7d423bf48a6c455384d2ae864565ee04"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R46d390a88a934348a1e11a5bd9e0326d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7345d21b766b4e3eaeda628f59778fde"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3c1345126d9844aab75ce119895c85e8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8f4ce7f886da4b418926fe2190c07f23"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R8a3916ce891f4c03bb43ef7710bd73d3"/>
   </x:sheets>
 </x:workbook>
 </file>
